--- a/backend/database_export.xlsx
+++ b/backend/database_export.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="114">
   <si>
     <t>id</t>
   </si>
@@ -73,7 +73,7 @@
     <t>next_post_time</t>
   </si>
   <si>
-    <t>testbot_sizzdleee</t>
+    <t>sizzdleee_08</t>
   </si>
   <si>
     <t>thug_99999</t>
@@ -82,10 +82,7 @@
     <t>Test 321</t>
   </si>
   <si>
-    <t>Gdhdhd</t>
-  </si>
-  <si>
-    <t>ShriiiiiiDevi</t>
+    <t>its.devesh012</t>
   </si>
   <si>
     <t>1234</t>
@@ -106,9 +103,6 @@
     <t>Dev_shriee_dar</t>
   </si>
   <si>
-    <t xml:space="preserve">Somthing </t>
-  </si>
-  <si>
     <t>s11111111</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>Test3211</t>
   </si>
   <si>
-    <t>Sjusis</t>
-  </si>
-  <si>
     <t>12345678</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
     <t>1234567899</t>
   </si>
   <si>
-    <t>Yooo</t>
-  </si>
-  <si>
     <t>goswamibhagyashri04@gmail.com</t>
   </si>
   <si>
@@ -169,27 +157,27 @@
     <t>{"uuids":{"phone_id":"00c46ff6-11e5-4c9d-8b9d-96e1cb7f51d9","uuid":"db3bcff6-9857-450b-bc22-df7f88f339e7","client_session_id":"ae905b60-88a1-4769-ac67-58c168154df2","advertising_id":"a49361e0-2504-40a8-99d5-9b8b2160210f","android_device_id":"android-9f5474fc3d527c34","request_id":"b8001f50-a76a-42ac-8f96-a0a5dae7ed98","tray_session_id":"c3fede98-33c7-43de-9c28-1768bc0f00de"},"mid":"aNXsqgABAAGqkQjRDl_zDcOmAGaI","authorization_data":{"ds_user_id":"75312165311","sessionid":"75312165311%3AGefAkNUtqiBLym%3A2%3AAYjhTwmTg-tPJIqEadlPAHxcV_BERHiB8ffb1oKP_A"},"device_settings":{"app_version":"269.0.0.18.75","android_version":26,"android_release":"8.0.0","dpi":"480dpi","resolution":"1080x1920","manufacturer":"OnePlus","device":"devitron","model":"6T Dev","cpu":"qcom","version_code":"314665256"},"user_agent":"Instagram 269.0.0.18.75 Android (26/8.0.0; 480dpi; 1080x1920; OnePlus; 6T Dev; devitron; qcom; en_US; 314665256)","country":"US","country_code":1,"locale":"en_US","timezone_offset":"-14400"}</t>
   </si>
   <si>
+    <t>https://drive.google.com/drive/u/0/mobile/folders/1-d5J8RSKDVJwb_WD4R0tuhQc4wJKE0MF?sort=13&amp;direction=a</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1-d5J8RSKDVJwb_WD4R0tuhQc4wJKE0MF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/15OfAACTlDQxtXwg0ESpS1XLj968jFIiI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1OKO34uZfaPm6X4kLOSCfimVozkDpeNl1</t>
+  </si>
+  <si>
+    <t>xkzlhlh</t>
+  </si>
+  <si>
+    <t>bnnejsjn</t>
+  </si>
+  <si>
     <t>https://drive.google.com/drive/folders/1N2lfXsZ4VlKNqyHFa10os6hx81ADu1V9</t>
   </si>
   <si>
-    <t>https://drive.google.com/drive/folders/1_LQrjp9kumkDBOWgvVAM_rvZh-vmvMeV</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/u/0/folders/1LJ1Rl_3HXFGPiuM4VgUNpZ_5f_UqzeLY</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/15OfAACTlDQxtXwg0ESpS1XLj968jFIiI</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1OKO34uZfaPm6X4kLOSCfimVozkDpeNl1</t>
-  </si>
-  <si>
-    <t>xkzlhlh</t>
-  </si>
-  <si>
-    <t>bnnejsjn</t>
-  </si>
-  <si>
     <t>jsjsjsjs</t>
   </si>
   <si>
@@ -199,163 +187,163 @@
     <t>No</t>
   </si>
   <si>
-    <t>{"token": "ya29.a0AQQ_BDSM16XnH-V0OotOmlsU6WRAVbaNYpaJaQlYKHzziSkJYs8ne97UhzG-P_SFQsF78xuTN6dID4ph8ieluCevUqh7GQEuutlwjFELHGgnqf0joicSFeLFYNE_Hy3cxs8-qc7mH6mn3dLUbUtv1N6bfA8QAkZlW_jHCoJkfRuDCe-RmAvv1kkB71gqg-UxfEY3MWYaCgYKAXQSARISFQHGX2MiTz-qI09yYkSWYufjY1pK5A0206", "refresh_token": "1//0g9jsj5IT8fGICgYIARAAGBASNwF-L9IrcnXzlCyXJ0RQQxAH3PG_nMTdZ1otQFg-iLqtrzqht7EfLcD2fjIuTIq_pDhVpd3_WTk", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive.readonly"], "expiry": "2025-10-02T20:09:33.431921"}</t>
-  </si>
-  <si>
-    <t>{"token": "ya29.a0AQQ_BDRFhZaN4IbgjIilEbYputaK8ykgUNiI9GcfJjLwoLbsVVq60cTc4MTwCyJe00kge1yyQhEUDI2ZsE2zeMOuvWesqz6tz5AjrIBHF0AZRNctyh7BZd-uP0keJvzq947NEGVfFiKulECBBgVcf5PchXWSfLj1l2-Z9PV0KqCcnAAGsh5Rl8b1D-wdLupIlmN1Pas7xgaCgYKARYSARISFQHGX2MiVh2rKL4-ltGr3rnQuYr7iA0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-02T21:14:20.356010Z"}</t>
+    <t>{"token": "ya29.a0AQQ_BDR1vwIzABcrYTn8Hwfn9v64rm-hdQq9lJtpu36zk1Xq5PwMpML9QeOPuowNUWhIgbgOGE3VRYGYEL5dSOAUdwzg_qsI7kf0yAYfXtwGBbAinWoXnTvOuUt8KAet2_lAS7QUieXYXVcBe7tgh9F8dKCgaHEH4cAHfmOIADpPkQFmFncfOxPBhJX8jgWgabDnZFyJVwaCgYKAesSARISFQHGX2Min2dBDZnwRxYOY7aYbQ-zAg0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-06T09:27:54.607313Z"}</t>
+  </si>
+  <si>
+    <t>{"token": "ya29.a0AQQ_BDSDxxiHSoL_V9nzGb26kBg2zFmTHdyc7Tkjwuu2_msBX7vT4tB_SpCQWdJVX8V8UEQ2H7NyYDSV5VUmE0Uaunr2t12CwZUSASZxoh1Ea_okqeRSoG-C72J_Q3G8Uu3ZuWJLD1S-ryolugRMYJdz4zzDfrTyPW50VXVt3Z3mYwMuZY90HfPJw9h4LhER6AmB2_R0WQaCgYKAVQSARISFQHGX2MimlVYUzQoQsR3SOswo63Cgw0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-05T16:11:24.431500Z"}</t>
+  </si>
+  <si>
+    <t>{"token": "ya29.a0AQQ_BDQ8m92eOHwOGZm0QGPEY7ZgBAkdoG58tUp3zYy3_ToDSyIj29oRVthdb9pzAl_RiOgNQp5hGhqgwAJ7RurWb1lO7MIucmxv1hssHVvvg1H2dpWhspEMvMgk1RT2rqO9Yq4dYQLSNttZwO28ENDJ0ubF8MWkw2o3e9fUo_xI4bWjZNhCtMDGv1s0Zh53YZfbeKtekgaCgYKAYESARISFQHGX2MiObcjY-jnDHNhRv9YPaKWRQ0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-05T11:17:12Z"}</t>
+  </si>
+  <si>
+    <t>{"token": "ya29.a0AQQ_BDSqsW-AUFhCanci_BKNMh84Mh1NTgC23drgci4FcwEw8FueMraQIlc-iLkpeR-Yq8PgP3Oi2uztMqdxKu5zPGQPsNXjadtEEf6TurwxJl-7MI52Q64dAxGLOjUx7_lMrYxtq_fmVHyCP7G8WmFD65LrUExSsYOR3iJ2DEumQkKvImibfapGiGSauqt6SnmTSjp0oAaCgYKAX8SARISFQHGX2MiY7QAC2gyx7KtT_XQjDdHcA0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-05T11:17:43.697969Z"}</t>
+  </si>
+  <si>
+    <t>{"token": "ya29.a0AQQ_BDQkA9bf8C66WFj6rnrvZEiUbZ6NdKA_7IJ7G1DFtw3qrOCrlkCcwvy4SO7j8ACDYDyI1-nEW4aCKJvRrvNVuYgkQHAeQkRjhfZixyVzthzhDMZhsq6-JLiAhX8SacyZGyc4Sd8pMJMd7OuH1gvQJc-SrcU8FlEkfSN7x1KWi1JWkqKH9YLc4mBzjAoJdv64BBZy0gaCgYKAegSARISFQHGX2MiHrcLoUni6sUVyTT2FtdXAA0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-05T11:17:45.446811Z"}</t>
+  </si>
+  <si>
+    <t>{"token": "ya29.a0AQQ_BDRDk3hb_GQml5i2hp-V0q2d4XyfINddgdMK2vCo8bLfYKGp707rAntY4zUNZUMOD9MK4-uB6o1IEcg9O4X5kLbvNSbk3qsuGKlzlnqybPI1EpcmttmV5kFRGPanUOgjT_fa9W01TjmKWeOoueA69viB_GsLx_-lExqUQmSKN4NKf-OE2FfOlUV1iQFi3FRTdb_W-QaCgYKAf0SARISFQHGX2Mi7VEyCYKHXuRSFPBmHNeonQ0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-05T11:17:47.809550Z"}</t>
+  </si>
+  <si>
+    <t>{"token": "ya29.a0AQQ_BDRUH_QnkW1DFv12f1SExODbKgRi2D7M0OzqLdMOkCSrEJP_1YxcEBcu-dJGmAgxI_uDW31XsVTtFjsPn01Zh9jwgWDLN-5ewdeDw4Kd7CAfeZoIdd9uHUA_iTivGSMXaia4EP8bSQQ1Lz5Q53r-im25SWypxWAneGTXfRazNMtmqMElMBxG7HfdFO32wMJKqNDv3QaCgYKAV8SARISFQHGX2MiX2JoHZB_uvQpnIXxuOFupA0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-05T11:17:50.865909Z"}</t>
+  </si>
+  <si>
+    <t>{"token": "ya29.a0AQQ_BDQlr3tnoerpVqL3Vy9gLXyyNGUP_flqCy85cZIergR8owNwzhvNtctj5pj2aqIJDRbuABXWVDyzsDUuXW3gXkUYn5d6bWWDlwTGiHr5scT-8GGCNdyTW7HIKOWQ3FSkUn6u6JFPgKqAw1n0ar9x-mPVWYkOQrocSBYbHYYBrpZ5GTSQlrOsltW1k-YWFcpyWwZrZAaCgYKAYQSARISFQHGX2MisuAAR7QD7XpkWJijQOB0hQ0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-05T11:17:52.992673Z"}</t>
+  </si>
+  <si>
+    <t>{"token": "ya29.a0AQQ_BDQ0ZgmuJcYW5lEhNv2OqbUJHPtFu0EcwjDgSz1Y-ZlkyX736iaTPhIzYpn8E71t10cdhujAZm03vFFT5wYQQKo7WyuPu9phmYwmoyffTxSSadTSvi5RoEiXNjI7Mclo1Q0baeMsdQUAM1iEqidYu4PDwpLRUIcs3kfNuV4dRvMHeh2Eq42V6xKxlj5WR_1J_au6BQaCgYKAToSARISFQHGX2MiWCBeDI0m-E8wGSlBWTvUEg0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-05T11:17:55.567428Z"}</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>passward</t>
+  </si>
+  <si>
+    <t>expiry</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>shriee</t>
+  </si>
+  <si>
+    <t>devesh</t>
+  </si>
+  <si>
+    <t>darshan</t>
+  </si>
+  <si>
+    <t>asim</t>
+  </si>
+  <si>
+    <t>test_user</t>
+  </si>
+  <si>
+    <t>john_doe</t>
+  </si>
+  <si>
+    <t>bindu_masaaaaai</t>
+  </si>
+  <si>
+    <t>yogesh lilake</t>
+  </si>
+  <si>
+    <t>Asim</t>
+  </si>
+  <si>
+    <t>Sagar Santra</t>
+  </si>
+  <si>
+    <t>Asim Das</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve </t>
+  </si>
+  <si>
+    <t>Bhagyashri@4</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>secure_password123</t>
+  </si>
+  <si>
+    <t>secure123456</t>
+  </si>
+  <si>
+    <t>yogesh123</t>
+  </si>
+  <si>
+    <t>asim1234</t>
+  </si>
+  <si>
+    <t>test@example.com</t>
+  </si>
+  <si>
+    <t>test1@example.com</t>
+  </si>
+  <si>
+    <t>test2@example.com</t>
+  </si>
+  <si>
+    <t>john.doe@example.com</t>
+  </si>
+  <si>
+    <t>bindu@exampale.com</t>
+  </si>
+  <si>
+    <t>yogeshlilake57@gmail.com</t>
+  </si>
+  <si>
+    <t>asim@gmail.com</t>
+  </si>
+  <si>
+    <t>deveshgoswami1911@gmail.com</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>channel_name</t>
+  </si>
+  <si>
+    <t>Shree_treats</t>
+  </si>
+  <si>
+    <t>test2_sizzleee</t>
+  </si>
+  <si>
+    <t>Shriiii</t>
+  </si>
+  <si>
+    <t>Hshahs</t>
+  </si>
+  <si>
+    <t>-1002615504715</t>
+  </si>
+  <si>
+    <t>-1002733103895</t>
+  </si>
+  <si>
+    <t>-72838</t>
+  </si>
+  <si>
+    <t>-100000</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1xs6WsSsThyUCa2zuTqV14AxsAXGXM3Xb</t>
   </si>
   <si>
     <t>{"token": "ya29.a0AQQ_BDRu0GOlqNKVybI1tfr9q6Ufu38II4WKAAvoA6-Lfk3IQcT45ysXUatgDJ_knf4pv677OEg5v5oMZG4VfucX5xxtPqQQZahAAl9ZOzAPYE7os0NteVMLoSj1WYTE4ev14i-YNrA9NcCM6abcN7ZhQSN-GJDN_0m_8Es-vJ9fML0tZZZlLA-m2cpNhsfIN-KMj9AbYAaCgYKAaYSARYSFQHGX2Mil5ikJtWOTu5GETA0y5_EFw0209", "refresh_token": "1//0gD5LdHiq77-OCgYIARAAGBASNwF-L9Ir531ny5EdmZ0Jg77Jn8tzqu5vrPspQPMfoGeNgHW4hJjX9OCWVGpk8c_O9GHRDCj-qWI", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-09-26T08:25:45.327119Z"}</t>
-  </si>
-  <si>
-    <t>{"token": "ya29.a0AQQ_BDTWvYzPfqMFC3I80FfH_bN4mgmRRozFaUCXXmvmXMNT0RZJYTISCB-X0MvDkWzjFzha03mczkRnrdJGEMIWO3rbltj-yVzHm59ZwfSsj77s9WsjA-YK8aaA0uBUenOlxy_8o_Ur4BdBPCPEEWVqhlcYETweR_OHVa40ggYpbJtuzib-7nAoGLrTu9_lH7qLg9oKHwaCgYKAV8SARISFQHGX2MiWljRawKtDuWToBGn-DhNEA0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-09-30T00:57:08.271653Z"}</t>
-  </si>
-  <si>
-    <t>{"token": "ya29.a0AQQ_BDT9jwbSNH9lJnxmMUQEOPu2UZWPuzYVPtkcHMykA-Lb53iFk-gN33BQH2j91e9122ba81eg_QfGtOyo6XsAGJmTwEJGd_xalGwYvgP8UZ-hDlrPrKsZ8l7u-WhtSn70Q67EHoRKBVAZ89oBznsiy0izeqEuFugjjJGKMTS0LWy-gMv_RiW0fKE__vN1EZoXSW7l4gaCgYKAfsSARISFQHGX2Mif67wIwAO66_WczIwj1OU3w0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-09-30T00:57:09.459271Z"}</t>
-  </si>
-  <si>
-    <t>{"token": "ya29.a0AQQ_BDSsqD2VJWAhV1ZNazLieKwnFnVDhV65mbvsY_uaNIFV6SD72Jg7lmplWnb707BXgZCCblqS9zS533Fvsvabg3-Beckgp1aO1iuTdRSgRhHbIgZIobbqWCXex6akkOzY_UFS7_9-Q2RXiCCXlVvJZkHoMl8w8aGzdCAfHIq4xbnNGX7AVoBnQMvf8yMjtM5KDoTWvAaCgYKAccSARISFQHGX2Mix9ItaqC_ykoYhwrzMNiJpQ0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-09-30T00:57:10.875393Z"}</t>
-  </si>
-  <si>
-    <t>{"token": "ya29.a0AQQ_BDQVCzK0_BpgeCfdMme8UuUDWSKNMJaXIw1ktUwM2a3nJtVcTAQFJqHmkH8lWqvrhxUaSwYpfwxiy_wdWiqoIUq_O-La-hHRp6qMcaZeITiK92HX7VF1aX1cgCGR226h5M7OcegBKF5Ure7aOTD_GdmjW0xLOzxYYwQTj1govj8JzY59QIL5jjAEWSAnguck_sMxSAaCgYKAdcSARISFQHGX2MidpCXIls3NRv0BexbKf1M6A0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-09-30T00:57:12.005365Z"}</t>
-  </si>
-  <si>
-    <t>{"token": "ya29.a0AQQ_BDSKEKrYE2wXo8ricxa2pmWMbI0ORgMhmmCdw2YjcwXtFXlUxAYYzhuv7GtEujY5FvC9EPVGOL3DUrtlWW0ENgdc3X1KeUoxk2JMAHZ0IBZgrI7daFSx3pulh9Td5XMtVVVVdszUF7FQ6CH4pXhSnucq-BnjczZ6inuXb2MrieQ8c8qRiCtI0HZ4orwcO3kTeBpYMAaCgYKAcISARISFQHGX2MiX47dCd-y-0opFFlH8yFzVw0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-09-30T00:57:13.244984Z"}</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>passward</t>
-  </si>
-  <si>
-    <t>expiry</t>
-  </si>
-  <si>
-    <t>phone_number</t>
-  </si>
-  <si>
-    <t>shriee</t>
-  </si>
-  <si>
-    <t>devesh</t>
-  </si>
-  <si>
-    <t>darshan</t>
-  </si>
-  <si>
-    <t>asim</t>
-  </si>
-  <si>
-    <t>test_user</t>
-  </si>
-  <si>
-    <t>john_doe</t>
-  </si>
-  <si>
-    <t>bindu_masaaaaai</t>
-  </si>
-  <si>
-    <t>yogesh lilake</t>
-  </si>
-  <si>
-    <t>Asim</t>
-  </si>
-  <si>
-    <t>Sagar Santra</t>
-  </si>
-  <si>
-    <t>Asim Das</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deve </t>
-  </si>
-  <si>
-    <t>Bhagyashri@4</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>secure_password123</t>
-  </si>
-  <si>
-    <t>secure123456</t>
-  </si>
-  <si>
-    <t>yogesh123</t>
-  </si>
-  <si>
-    <t>asim1234</t>
-  </si>
-  <si>
-    <t>test@example.com</t>
-  </si>
-  <si>
-    <t>test1@example.com</t>
-  </si>
-  <si>
-    <t>test2@example.com</t>
-  </si>
-  <si>
-    <t>john.doe@example.com</t>
-  </si>
-  <si>
-    <t>bindu@exampale.com</t>
-  </si>
-  <si>
-    <t>yogeshlilake57@gmail.com</t>
-  </si>
-  <si>
-    <t>asim@gmail.com</t>
-  </si>
-  <si>
-    <t>deveshgoswami1911@gmail.com</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>channel_name</t>
-  </si>
-  <si>
-    <t>testtl</t>
-  </si>
-  <si>
-    <t>test2_sizzleee</t>
-  </si>
-  <si>
-    <t>Yoo</t>
-  </si>
-  <si>
-    <t>Shriiii</t>
-  </si>
-  <si>
-    <t>Hshahs</t>
-  </si>
-  <si>
-    <t>-1002615504715</t>
-  </si>
-  <si>
-    <t>-1002733103895</t>
-  </si>
-  <si>
-    <t>-283737</t>
-  </si>
-  <si>
-    <t>-72838</t>
-  </si>
-  <si>
-    <t>-100000</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1xs6WsSsThyUCa2zuTqV14AxsAXGXM3Xb</t>
   </si>
   <si>
     <t>john_fb</t>
@@ -748,7 +736,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -821,25 +809,25 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I2" s="3">
         <v>0.006944444444444444</v>
       </c>
       <c r="J2" s="3">
-        <v>0.502800925925926</v>
+        <v>0.8361342592592592</v>
       </c>
       <c r="K2" s="4">
         <v>45864</v>
@@ -848,22 +836,22 @@
         <v>0.0625</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="O2">
-        <v>91</v>
+        <v>1000</v>
       </c>
       <c r="P2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R2" s="5">
-        <v>45933.07697916667</v>
+        <v>45936.5818287037</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -877,19 +865,19 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I3" s="3">
         <v>0.001388888888888889</v>
@@ -904,19 +892,22 @@
         <v>0.5</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N3">
-        <v>7</v>
+        <v>800</v>
       </c>
       <c r="O3">
-        <v>7</v>
+        <v>800</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q3" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="R3" s="5">
+        <v>45936.58208333333</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -930,16 +921,16 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I4" s="3">
         <v>0.375</v>
@@ -960,39 +951,39 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I5" s="3">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="J5" s="3">
         <v>0.7083333333333334</v>
@@ -1004,98 +995,101 @@
         <v>0.5</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N5">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="O5">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="P5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I6" s="3">
-        <v>0.4166666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="J6" s="3">
         <v>0.7083333333333334</v>
       </c>
       <c r="K6" s="4">
-        <v>45928</v>
+        <v>45930</v>
       </c>
       <c r="L6" s="3">
         <v>0.5</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N6">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="O6">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="P6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q6" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="R6" s="5">
+        <v>45936.60693287037</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
         <v>54</v>
-      </c>
-      <c r="H7" t="s">
-        <v>59</v>
       </c>
       <c r="I7" s="3">
         <v>0.375</v>
@@ -1110,7 +1104,7 @@
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -1119,15 +1113,18 @@
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q7" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="R7" s="5">
+        <v>45936.60693287037</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>15</v>
@@ -1136,22 +1133,22 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I8" s="3">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="J8" s="3">
         <v>0.7083333333333334</v>
@@ -1163,7 +1160,7 @@
         <v>0.5</v>
       </c>
       <c r="M8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N8">
         <v>5</v>
@@ -1172,15 +1169,18 @@
         <v>5</v>
       </c>
       <c r="P8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q8" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="R8" s="5">
+        <v>45936.60693287037</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -1189,22 +1189,22 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I9" s="3">
-        <v>0.4166666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="J9" s="3">
         <v>0.7083333333333334</v>
@@ -1216,7 +1216,7 @@
         <v>0.5</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N9">
         <v>5</v>
@@ -1225,15 +1225,18 @@
         <v>5</v>
       </c>
       <c r="P9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q9" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="R9" s="5">
+        <v>45936.60693287037</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -1242,19 +1245,19 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I10" s="3">
         <v>0.375</v>
@@ -1269,7 +1272,7 @@
         <v>0.5</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N10">
         <v>5</v>
@@ -1278,169 +1281,66 @@
         <v>5</v>
       </c>
       <c r="P10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q10" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="R10" s="5">
+        <v>45936.60693287037</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>45</v>
       </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
+      <c r="G11" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I11" s="3">
         <v>0.375</v>
       </c>
       <c r="J11" s="3">
-        <v>0.7083333333333334</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="K11" s="4">
-        <v>45930</v>
+        <v>45933</v>
       </c>
       <c r="L11" s="3">
         <v>0.5</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="P11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12">
-        <v>25</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="K12" s="4">
-        <v>45933</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M12" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12">
-        <v>5000</v>
-      </c>
-      <c r="O12">
-        <v>5000</v>
-      </c>
-      <c r="P12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13">
-        <v>26</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="K13" s="4">
-        <v>45933</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N13">
-        <v>50</v>
-      </c>
-      <c r="O13">
-        <v>50</v>
-      </c>
-      <c r="P13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1449,10 +1349,8 @@
     <hyperlink ref="G3" r:id="rId2"/>
     <hyperlink ref="G5" r:id="rId3"/>
     <hyperlink ref="G6" r:id="rId4"/>
-    <hyperlink ref="G7" r:id="rId5"/>
-    <hyperlink ref="G10" r:id="rId6"/>
-    <hyperlink ref="G12" r:id="rId7"/>
-    <hyperlink ref="G13" r:id="rId8"/>
+    <hyperlink ref="G9" r:id="rId5"/>
+    <hyperlink ref="G11" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1468,22 +1366,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1491,13 +1389,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4">
         <v>46229</v>
@@ -1508,19 +1406,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E3" s="4">
         <v>46229</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1528,13 +1426,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E4" s="4">
         <v>46229</v>
@@ -1545,13 +1443,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E5" s="4">
         <v>46229</v>
@@ -1562,13 +1460,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E6" s="4">
         <v>46229</v>
@@ -1579,13 +1477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E7" s="4">
         <v>46240</v>
@@ -1596,13 +1494,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E8" s="4">
         <v>46240</v>
@@ -1613,13 +1511,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E9" s="4">
         <v>46240</v>
@@ -1630,13 +1528,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E10" s="4">
         <v>46247</v>
@@ -1647,13 +1545,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E11" s="4">
         <v>46291</v>
@@ -1664,13 +1562,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E12" s="4">
         <v>46295</v>
@@ -1681,13 +1579,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E13" s="4">
         <v>46295</v>
@@ -1698,13 +1596,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E14" s="4">
         <v>46298</v>
@@ -1717,7 +1615,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1731,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -1784,19 +1682,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="H2" s="3">
         <v>0.001388888888888889</v>
@@ -1811,22 +1709,19 @@
         <v>0.575775462962963</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="M2">
         <v>80</v>
       </c>
       <c r="N2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>45926.57706018518</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1837,16 +1732,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H3" s="3">
         <v>0.001388888888888889</v>
@@ -1867,43 +1762,46 @@
         <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H4" s="3">
         <v>0.375</v>
       </c>
       <c r="I4" s="3">
-        <v>0.8333333333333334</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="J4" s="4">
-        <v>45927</v>
+        <v>45928</v>
       </c>
       <c r="K4" s="3">
         <v>0.5</v>
       </c>
+      <c r="L4" t="s">
+        <v>108</v>
+      </c>
       <c r="M4">
         <v>5</v>
       </c>
@@ -1911,30 +1809,30 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H5" s="3">
         <v>0.375</v>
@@ -1943,14 +1841,11 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="J5" s="4">
-        <v>45928</v>
+        <v>45930</v>
       </c>
       <c r="K5" s="3">
         <v>0.5</v>
       </c>
-      <c r="L5" t="s">
-        <v>62</v>
-      </c>
       <c r="M5">
         <v>5</v>
       </c>
@@ -1958,54 +1853,10 @@
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="J6" s="4">
-        <v>45930</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2041,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2088,25 +1939,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="D2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="J2" s="3">
         <v>0.375</v>
@@ -2127,10 +1978,10 @@
         <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/backend/database_export.xlsx
+++ b/backend/database_export.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -73,6 +73,12 @@
     <t>next_post_time</t>
   </si>
   <si>
+    <t>schedule_hash</t>
+  </si>
+  <si>
+    <t>custom_schedule_data</t>
+  </si>
+  <si>
     <t>sizzdleee_08</t>
   </si>
   <si>
@@ -103,6 +109,9 @@
     <t>Dev_shriee_dar</t>
   </si>
   <si>
+    <t>nishannnnnt__</t>
+  </si>
+  <si>
     <t>s11111111</t>
   </si>
   <si>
@@ -130,6 +139,9 @@
     <t>1234567899</t>
   </si>
   <si>
+    <t>Nishant@22</t>
+  </si>
+  <si>
     <t>goswamibhagyashri04@gmail.com</t>
   </si>
   <si>
@@ -145,6 +157,9 @@
     <t>asimdas07112003@gmail.com</t>
   </si>
   <si>
+    <t>nishantgole@tsdcmumbai.in</t>
+  </si>
+  <si>
     <t>{"uuids": {"phone_id": "00c46ff6-11e5-4c9d-8b9d-96e1cb7f51d9", "uuid": "db3bcff6-9857-450b-bc22-df7f88f339e7", "client_session_id": "ae905b60-88a1-4769-ac67-58c168154df2", "advertising_id": "a49361e0-2504-40a8-99d5-9b8b2160210f", "android_device_id": "android-9f5474fc3d527c34", "request_id": "b8001f50-a76a-42ac-8f96-a0a5dae7ed98", "tray_session_id": "c3fede98-33c7-43de-9c28-1768bc0f00de"}, "mid": "aNXsqgABAAGqkQjRDl_zDcOmAGaI", "ig_u_rur": null, "ig_www_claim": null, "authorization_data": {"ds_user_id": "75312165311", "sessionid": "75312165311%3AGefAkNUtqiBLym%3A2%3AAYjhTwmTg-tPJIqEadlPAHxcV_BERHiB8ffb1oKP_A"}, "cookies": {}, "last_login": 1758850235.7332764, "device_settings": {"app_version": "269.0.0.18.75", "android_version": 26, "android_release": "8.0.0", "dpi": "480dpi", "resolution": "1080x1920", "manufacturer": "OnePlus", "device": "devitron", "model": "6T Dev", "cpu": "qcom", "version_code": "314665256"}, "user_agent": "Instagram 269.0.0.18.75 Android (26/8.0.0; 480dpi; 1080x1920; OnePlus; 6T Dev; devitron; qcom; en_US; 314665256)", "country": "US", "country_code": 1, "locale": "en_US", "timezone_offset": -14400}</t>
   </si>
   <si>
@@ -157,9 +172,6 @@
     <t>{"uuids":{"phone_id":"00c46ff6-11e5-4c9d-8b9d-96e1cb7f51d9","uuid":"db3bcff6-9857-450b-bc22-df7f88f339e7","client_session_id":"ae905b60-88a1-4769-ac67-58c168154df2","advertising_id":"a49361e0-2504-40a8-99d5-9b8b2160210f","android_device_id":"android-9f5474fc3d527c34","request_id":"b8001f50-a76a-42ac-8f96-a0a5dae7ed98","tray_session_id":"c3fede98-33c7-43de-9c28-1768bc0f00de"},"mid":"aNXsqgABAAGqkQjRDl_zDcOmAGaI","authorization_data":{"ds_user_id":"75312165311","sessionid":"75312165311%3AGefAkNUtqiBLym%3A2%3AAYjhTwmTg-tPJIqEadlPAHxcV_BERHiB8ffb1oKP_A"},"device_settings":{"app_version":"269.0.0.18.75","android_version":26,"android_release":"8.0.0","dpi":"480dpi","resolution":"1080x1920","manufacturer":"OnePlus","device":"devitron","model":"6T Dev","cpu":"qcom","version_code":"314665256"},"user_agent":"Instagram 269.0.0.18.75 Android (26/8.0.0; 480dpi; 1080x1920; OnePlus; 6T Dev; devitron; qcom; en_US; 314665256)","country":"US","country_code":1,"locale":"en_US","timezone_offset":"-14400"}</t>
   </si>
   <si>
-    <t>https://drive.google.com/drive/u/0/mobile/folders/1-d5J8RSKDVJwb_WD4R0tuhQc4wJKE0MF?sort=13&amp;direction=a</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1-d5J8RSKDVJwb_WD4R0tuhQc4wJKE0MF</t>
   </si>
   <si>
@@ -178,7 +190,7 @@
     <t>https://drive.google.com/drive/folders/1N2lfXsZ4VlKNqyHFa10os6hx81ADu1V9</t>
   </si>
   <si>
-    <t>jsjsjsjs</t>
+    <t>https://drive.google.com/drive/folders/1-d5J8RSKDVJwb_WD4R0tuhQc4wJKE0MF?usp=drive_link</t>
   </si>
   <si>
     <t>Yes</t>
@@ -187,36 +199,72 @@
     <t>No</t>
   </si>
   <si>
-    <t>{"token": "ya29.a0AQQ_BDR1vwIzABcrYTn8Hwfn9v64rm-hdQq9lJtpu36zk1Xq5PwMpML9QeOPuowNUWhIgbgOGE3VRYGYEL5dSOAUdwzg_qsI7kf0yAYfXtwGBbAinWoXnTvOuUt8KAet2_lAS7QUieXYXVcBe7tgh9F8dKCgaHEH4cAHfmOIADpPkQFmFncfOxPBhJX8jgWgabDnZFyJVwaCgYKAesSARISFQHGX2Min2dBDZnwRxYOY7aYbQ-zAg0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-06T09:27:54.607313Z"}</t>
-  </si>
-  <si>
-    <t>{"token": "ya29.a0AQQ_BDSDxxiHSoL_V9nzGb26kBg2zFmTHdyc7Tkjwuu2_msBX7vT4tB_SpCQWdJVX8V8UEQ2H7NyYDSV5VUmE0Uaunr2t12CwZUSASZxoh1Ea_okqeRSoG-C72J_Q3G8Uu3ZuWJLD1S-ryolugRMYJdz4zzDfrTyPW50VXVt3Z3mYwMuZY90HfPJw9h4LhER6AmB2_R0WQaCgYKAVQSARISFQHGX2MimlVYUzQoQsR3SOswo63Cgw0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-05T16:11:24.431500Z"}</t>
-  </si>
-  <si>
-    <t>{"token": "ya29.a0AQQ_BDQ8m92eOHwOGZm0QGPEY7ZgBAkdoG58tUp3zYy3_ToDSyIj29oRVthdb9pzAl_RiOgNQp5hGhqgwAJ7RurWb1lO7MIucmxv1hssHVvvg1H2dpWhspEMvMgk1RT2rqO9Yq4dYQLSNttZwO28ENDJ0ubF8MWkw2o3e9fUo_xI4bWjZNhCtMDGv1s0Zh53YZfbeKtekgaCgYKAYESARISFQHGX2MiObcjY-jnDHNhRv9YPaKWRQ0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-05T11:17:12Z"}</t>
-  </si>
-  <si>
-    <t>{"token": "ya29.a0AQQ_BDSqsW-AUFhCanci_BKNMh84Mh1NTgC23drgci4FcwEw8FueMraQIlc-iLkpeR-Yq8PgP3Oi2uztMqdxKu5zPGQPsNXjadtEEf6TurwxJl-7MI52Q64dAxGLOjUx7_lMrYxtq_fmVHyCP7G8WmFD65LrUExSsYOR3iJ2DEumQkKvImibfapGiGSauqt6SnmTSjp0oAaCgYKAX8SARISFQHGX2MiY7QAC2gyx7KtT_XQjDdHcA0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-05T11:17:43.697969Z"}</t>
-  </si>
-  <si>
-    <t>{"token": "ya29.a0AQQ_BDQkA9bf8C66WFj6rnrvZEiUbZ6NdKA_7IJ7G1DFtw3qrOCrlkCcwvy4SO7j8ACDYDyI1-nEW4aCKJvRrvNVuYgkQHAeQkRjhfZixyVzthzhDMZhsq6-JLiAhX8SacyZGyc4Sd8pMJMd7OuH1gvQJc-SrcU8FlEkfSN7x1KWi1JWkqKH9YLc4mBzjAoJdv64BBZy0gaCgYKAegSARISFQHGX2MiHrcLoUni6sUVyTT2FtdXAA0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-05T11:17:45.446811Z"}</t>
-  </si>
-  <si>
-    <t>{"token": "ya29.a0AQQ_BDRDk3hb_GQml5i2hp-V0q2d4XyfINddgdMK2vCo8bLfYKGp707rAntY4zUNZUMOD9MK4-uB6o1IEcg9O4X5kLbvNSbk3qsuGKlzlnqybPI1EpcmttmV5kFRGPanUOgjT_fa9W01TjmKWeOoueA69viB_GsLx_-lExqUQmSKN4NKf-OE2FfOlUV1iQFi3FRTdb_W-QaCgYKAf0SARISFQHGX2Mi7VEyCYKHXuRSFPBmHNeonQ0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-05T11:17:47.809550Z"}</t>
-  </si>
-  <si>
-    <t>{"token": "ya29.a0AQQ_BDRUH_QnkW1DFv12f1SExODbKgRi2D7M0OzqLdMOkCSrEJP_1YxcEBcu-dJGmAgxI_uDW31XsVTtFjsPn01Zh9jwgWDLN-5ewdeDw4Kd7CAfeZoIdd9uHUA_iTivGSMXaia4EP8bSQQ1Lz5Q53r-im25SWypxWAneGTXfRazNMtmqMElMBxG7HfdFO32wMJKqNDv3QaCgYKAV8SARISFQHGX2MiX2JoHZB_uvQpnIXxuOFupA0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-05T11:17:50.865909Z"}</t>
-  </si>
-  <si>
-    <t>{"token": "ya29.a0AQQ_BDQlr3tnoerpVqL3Vy9gLXyyNGUP_flqCy85cZIergR8owNwzhvNtctj5pj2aqIJDRbuABXWVDyzsDUuXW3gXkUYn5d6bWWDlwTGiHr5scT-8GGCNdyTW7HIKOWQ3FSkUn6u6JFPgKqAw1n0ar9x-mPVWYkOQrocSBYbHYYBrpZ5GTSQlrOsltW1k-YWFcpyWwZrZAaCgYKAYQSARISFQHGX2MisuAAR7QD7XpkWJijQOB0hQ0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-05T11:17:52.992673Z"}</t>
-  </si>
-  <si>
-    <t>{"token": "ya29.a0AQQ_BDQ0ZgmuJcYW5lEhNv2OqbUJHPtFu0EcwjDgSz1Y-ZlkyX736iaTPhIzYpn8E71t10cdhujAZm03vFFT5wYQQKo7WyuPu9phmYwmoyffTxSSadTSvi5RoEiXNjI7Mclo1Q0baeMsdQUAM1iEqidYu4PDwpLRUIcs3kfNuV4dRvMHeh2Eq42V6xKxlj5WR_1J_au6BQaCgYKAToSARISFQHGX2MiWCBeDI0m-E8wGSlBWTvUEg0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-05T11:17:55.567428Z"}</t>
+    <t>{"token": "ya29.a0AQQ_BDSpkv_BbHVFhmwYzHgCqC2fGe0m5dFexgruDh-_6VtmaDt5dd9H7FDZzBsxCdpOFlH_0oznue90UwR8lRlyQjVkcDtKhUJVCMFaATspNxTPzDC3G2Khrke5jR1asyrkPjct8tCDXXYad1gs5FgDyp0sgssG6Fh5CB9e_e8T2w4-QnBBx5OIFrz5ATl9MjhrSpEj6QaCgYKAQ8SARISFQHGX2MixWO2G3GSLjSYJqCFr2Kb2g0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-08T21:22:42.654493Z"}</t>
+  </si>
+  <si>
+    <t>{"token": "ya29.a0AQQ_BDT9BCZo_Ow2tH9fQ1TSYFC3v-Gnuo_Aa3jLJnFPcG1GK1WM5m1CWDLXL0QDkHwaLTdQM_fXs1TkIrEolYuzYoh2644pPa8ZznuT7lRGYFjIk03EAdyxgYoJ2ABqH_v7liwV6U2xwdbZrDRfnwe8RDV9BDRYTW2pJ-U7Se3pzvyToMvTr9XVJduMK8Z7lrOqtECKSAaCgYKAS4SARISFQHGX2MiaWe65vmreNe6ODQnAAdC5Q0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-08T21:24:41.006616Z"}</t>
+  </si>
+  <si>
+    <t>{"token": "ya29.a0AQQ_BDQnKzwcA1eGIYVpksjZ5fTndbQkazLKLB6EdSASL2q42oK8lT4rMm1nBvc46LZDj0-810Ao4bUAAhVpUrHSLrdAzUckxZdpF4pkNz_hC9h9BugdwwimZEN6i9b7ncRfAezLVODFEnJPPgbZuLx01WuF7M9Pv7Er9d8QiPdHPpObK5TP5PHlliYFaGBfHltosKfR7QaCgYKAQsSARISFQHGX2MiYMapb5X2F-vvdesIj3A6iQ0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-07T20:01:18.882414Z"}</t>
+  </si>
+  <si>
+    <t>{"token": "ya29.a0AQQ_BDSmjNMcXUMdrF8vxChz3QVrG9ACXHGdeB4S-p20kNHBAW5lmHG2VueQBHwoscu-KrMj18_BaOGjyEcrOgIL7fQhWbUf2j1KutB5To73knKLBRChZAUQItqZFzRFDrBCbvQ3t0u6F20-9mu4xQAOtk4pPWfuVdNXstL_reg7r62v7LPxiEWrl12QSZrqnlSDb2o8DwaCgYKAfUSARISFQHGX2MizjMoUFHJt6vkf0JDOXPouQ0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-07T19:48:39.742209Z"}</t>
+  </si>
+  <si>
+    <t>{"token": "ya29.a0AQQ_BDSUitKI3DihxqcRZr-nukz9PBKOmKl17PVzlb-bSZv1uxkdasoxWG5ARMSYe0cSKMn3YY66hRqP2ogwEpvV84XPRtfCdq8JgzZy0u0Swan2HkSIRvVFWh-7dwNpsmJH7g_91AWXPqAA8GwTKPeCQKppH1gjpVHvmRwWFnBcZ9Xx99-lSQKrUAaYPmTMyswTqKCUOwaCgYKAUoSARISFQHGX2MidenNeKxp8zkABg74ElFMUw0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-07T19:48:43.735367Z"}</t>
+  </si>
+  <si>
+    <t>{"token": "ya29.a0AQQ_BDQnx5Qx5i_rVBjhfNaUA0KsU3NhzmRp6O_oTmbwJ8UCah7SKIC0j3IYXfUfibkDf075R9jhR2eekFvS6LWYaH6d2Yjhb_DD-mMZpaSHdgi-irP70xn-7HF3Ye7cKsZcuK7agfIWzHWXEX4idqgN0NVNMdHTnAQGmAFjNFHfNkuJbqsKBxmGTrgs_rgEMd42-c7HOAaCgYKARESARISFQHGX2MipJQC1CKtqkjrZWUBn-T7Og0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-07T19:48:47.069680Z"}</t>
+  </si>
+  <si>
+    <t>{"token": "ya29.a0AQQ_BDRcEeLH1N-80KN07uKuZu1TFMnXL8EJhFKE5KwwwvU90OONk3SjNmVfMvkQw5_U2IbmsdRNH7wcgzOV9imcIbDB4dWmf5-qlpDqMOAgYX8w9L-gc8icuNuzxo3SkR9GT6KjfN--f9yo5PjmkejjB6CWW7G6xnYPHnjaKs5lXRJnWP7m2hapr1IgxWnpBLWE8yrZzwaCgYKAQgSARISFQHGX2MipZujEH7Xh0xx_JvKxLAQQg0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-07T19:48:50.259655Z"}</t>
+  </si>
+  <si>
+    <t>{"token": "ya29.a0AQQ_BDS6yvdBQ_70zYoEEsRSp360NfZ56HO3qMzMKwADn-cT0PsnUE_-Vxp_cU0IChuRKt1EB4rpn8UL7ZtlxH2tvYMevRcLI8QKLpkaMprmsebEKl6EX1CdqZr8rjrbvci3o4JL8Xf321-1ikrQo2VfFtgBVY7CqJtiEuc8pu5WsVAR-VYIXTQRr-cEWxuyExDhUw-HcwaCgYKAawSARISFQHGX2MiK90MyZTNIz7M5j2j5P60RA0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-07T19:48:53.931965Z"}</t>
+  </si>
+  <si>
+    <t>{"token": "ya29.a0AQQ_BDSAvkeLFH4xsDeJEXbJL0budg2EEAhnGSmp3O8ujBti4oQpAgpmeM0aw5-dvApQvJ3JitXzUQrTlmwrwVOPxExOk5a4CghEwQZF7rtKxRW3oy_WWlq8xnVGPkrFrxYw1784RbNSVh_r13V6qK6t2wIfk_diUsslqAAYcQu25LYTk4GKngsnJXpkHOfAILmGl7QR2AaCgYKAecSARISFQHGX2MiWzKzl81xOw0InLwLYO45Tw0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-07T19:48:57.275162Z"}</t>
+  </si>
+  <si>
+    <t>{"token": "ya29.a0AQQ_BDQz3ipZHvoHP8w1y0JsAmIN5UJJTd89mM0ZT5lPhvXqeZUX54UV6MvJEzH5kRtpdjga__FM7jQ_U96AowWC8iIlVC7eS58WXn7VB_z1p2fd1E9u2p7HbUHkBJEtfmEBwJRrlxLmPUdZEs3P2xYvnql_LJRKy6y2buopHzctv-M5wV45NlfTuE3pJNcbDXM84c39wgaCgYKAQgSARISFQHGX2MiAX-kRO5CD80IKRoGOlREMA0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-07T20:01:21.811652Z"}</t>
+  </si>
+  <si>
+    <t>{"token": "ya29.a0AQQ_BDTvhfUl0puVkk6oivzleFeDr36lKLFwBZaESkwaS2zbDUS0rxMX3aTGRlEPbBtUoNnR3e5fzJPlwbC9-kksO-V3n091j9yWBlZ065nX-CnXxgekYY3kS_sJBW6BzDGjh8bpue6yCDRijDJkppKCuLptSJiEcO91v6p0kbhOCapitb01LCxVYnUVD6ZFsnWqxKVISAaCgYKAfkSARISFQHGX2Miw63SJNRVVJ2YGVubO0xMGw0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-07T20:01:23.591015Z"}</t>
   </si>
   <si>
     <t>range</t>
   </si>
   <si>
+    <t>6273b2f731c93d4c6b2a6cb85f7ead04</t>
+  </si>
+  <si>
+    <t>f9e09b8e25ef258361d7f3710c54c99f</t>
+  </si>
+  <si>
+    <t>883f65d5eb5f704e1d373bf402b261f5</t>
+  </si>
+  <si>
+    <t>a7a7468f02013a7ca871c30bb4b2eae9</t>
+  </si>
+  <si>
+    <t>d90c34f72c7cae6c8c22cd24731e3504</t>
+  </si>
+  <si>
+    <t>019f5fb098f974627ce68a355bf8765a</t>
+  </si>
+  <si>
+    <t>a465973fc392219d00bf85693dd21e49</t>
+  </si>
+  <si>
+    <t>[{"media_name": "IMG_6523.jpg", "scheduled_datetime": null, "file_id": "1dMd5r_wNq7S4DprBRUe89mCOHGBWAmZE", "status": "pending", "upload_time": "2025-10-11 12:46:04", "schedule_type": "range"}, {"media_name": "bcb4a16154c940d6be3339ee0360f2ae.mov", "scheduled_datetime": null, "file_id": "1XZb2eW8eCmHjAmt9bE5kCD_Mpe27dh0z", "status": "pending", "upload_time": "2025-10-11 12:47:55", "schedule_type": "range"}, {"media_name": "IMG_0498.mov", "scheduled_datetime": null, "file_id": "1gEaipO2r0OYZFGFxz5K26rbKjePyaOWD", "status": "pending", "upload_time": "2025-10-11 12:49:35", "schedule_type": "range"}]</t>
+  </si>
+  <si>
+    <t>[{"file_id": "1PHwMolraH24obyJcfJx8NnBkvDERYN7Q", "media_name": "1000414065.jpg", "schedule_type": "datetime", "scheduled_datetime": "2025-10-11 03:10:00", "status": "pending", "upload_time": "2025-10-11 00:48:51"}, {"file_id": "1jn_fV3MeRDxyyZtufywE2X9Zgm65qTHn", "media_name": "1000414068.jpg", "schedule_type": "range", "scheduled_datetime": null, "status": "pending", "upload_time": "2025-10-11 00:49:36"}, {"file_id": "1sSk5rn4YvYs_Ou0nujsaomC3QdxTn9pP", "media_name": "1000412779.mp4", "schedule_type": "range", "scheduled_datetime": null, "status": "pending", "upload_time": "2025-10-11 00:49:43"}, {"file_id": "1CzGfFBDnGW7w3HPdH6YQonCsZT1tgxrL", "media_name": "1000412000.mp4", "schedule_type": "datetime", "scheduled_datetime": "2025-10-21 03:15:00", "status": "pending", "upload_time": "2025-10-11 00:50:07"}, {"file_id": "1QDF-5v9Mn3zDRaeEXU8X2WhzRjQVxZlv", "media_name": "1000414447.jpg", "schedule_type": "datetime", "scheduled_datetime": "2025-10-11 07:38:00", "status": "pending", "upload_time": "2025-10-11 13:04:32"}, {"file_id": "15DW-xMwh6qgj3SxLtpNT1in-RXseiHVn", "media_name": "1000411385.mp4", "schedule_type": "range", "scheduled_datetime": null, "status": "pending", "upload_time": "2025-10-11 13:01:31"}]</t>
+  </si>
+  <si>
+    <t>[{"media_name": "1000412708.jpg", "scheduled_datetime": null, "file_id": "1iJmmB1_BJmTChC4OPcsNqYYDEwNEreV8", "status": "pending", "upload_time": "2025-10-11 19:56:42", "schedule_type": "range"}]</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -268,6 +316,12 @@
     <t xml:space="preserve">Deve </t>
   </si>
   <si>
+    <t>Nishant</t>
+  </si>
+  <si>
+    <t>Shree</t>
+  </si>
+  <si>
     <t>Bhagyashri@4</t>
   </si>
   <si>
@@ -286,6 +340,9 @@
     <t>asim1234</t>
   </si>
   <si>
+    <t>11111111</t>
+  </si>
+  <si>
     <t>test@example.com</t>
   </si>
   <si>
@@ -310,6 +367,9 @@
     <t>deveshgoswami1911@gmail.com</t>
   </si>
   <si>
+    <t>gbhagyashri12@gmail.com</t>
+  </si>
+  <si>
     <t>123456789</t>
   </si>
   <si>
@@ -343,7 +403,16 @@
     <t>https://drive.google.com/drive/folders/1xs6WsSsThyUCa2zuTqV14AxsAXGXM3Xb</t>
   </si>
   <si>
-    <t>{"token": "ya29.a0AQQ_BDRu0GOlqNKVybI1tfr9q6Ufu38II4WKAAvoA6-Lfk3IQcT45ysXUatgDJ_knf4pv677OEg5v5oMZG4VfucX5xxtPqQQZahAAl9ZOzAPYE7os0NteVMLoSj1WYTE4ev14i-YNrA9NcCM6abcN7ZhQSN-GJDN_0m_8Es-vJ9fML0tZZZlLA-m2cpNhsfIN-KMj9AbYAaCgYKAaYSARYSFQHGX2Mil5ikJtWOTu5GETA0y5_EFw0209", "refresh_token": "1//0gD5LdHiq77-OCgYIARAAGBASNwF-L9Ir531ny5EdmZ0Jg77Jn8tzqu5vrPspQPMfoGeNgHW4hJjX9OCWVGpk8c_O9GHRDCj-qWI", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-09-26T08:25:45.327119Z"}</t>
+    <t>{"token": "ya29.a0AQQ_BDQHy_UtekZIjpf9wA891RTJ0SHOwXFGzX1OorhI4DzVGN7M5vRf0K78I2_Vw2VbvXVFEf2GKQryOzkvmeYLPeJemueLJGIbzWRBcTsrP-9Srefhko1ukSAeC_6QLuH4UZVrgTeSUHXx6rIWIA6BQoQ5iBHAf_YFPBSEsVbl-WIzFEwM8mLMyWxQmwHfS0e-kTZ9_gaCgYKAVgSARYSFQHGX2MijvZFdfbrsUNKf4LpHBsGYA0209", "refresh_token": "1//0gD5LdHiq77-OCgYIARAAGBASNwF-L9Ir531ny5EdmZ0Jg77Jn8tzqu5vrPspQPMfoGeNgHW4hJjX9OCWVGpk8c_O9GHRDCj-qWI", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-08T22:16:41.601224Z"}</t>
+  </si>
+  <si>
+    <t>{"token": "ya29.a0AQQ_BDSwid5Ay7aA8JQ51twtxHmIxzImW-XLBTvrGUczVbv4rZhawi1hQca-WSfFzcqT6hDcgcn0Pf_DjJhXnkU3LNQCtqX5cGnT0BoadqbOj0AOFrsZGPkGpLO-V1P9ndpDpUM861v3nki8PZED4nJj5Ggfy_hbmadLU7VMfnmX_ItfX_LhYlsVXGfnVWimWzpVNt41LgaCgYKAT4SARYSFQHGX2Mi7zYvbBkVoqNV20jkFT8KPQ0209", "refresh_token": "1//0gD5LdHiq77-OCgYIARAAGBASNwF-L9Ir531ny5EdmZ0Jg77Jn8tzqu5vrPspQPMfoGeNgHW4hJjX9OCWVGpk8c_O9GHRDCj-qWI", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-07T19:49:24.300473Z"}</t>
+  </si>
+  <si>
+    <t>9df4f2a8c258de3406150df5497f77b6</t>
+  </si>
+  <si>
+    <t>d6f9689b6bf83c97d04fedaea38d8d6d</t>
   </si>
   <si>
     <t>john_fb</t>
@@ -736,13 +805,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,8 +866,14 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>1</v>
       </c>
@@ -806,22 +881,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I2" s="3">
         <v>0.006944444444444444</v>
@@ -836,25 +911,31 @@
         <v>0.0625</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N2">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="O2">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="R2" s="5">
-        <v>45936.5818287037</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>45939.42152777778</v>
+      </c>
+      <c r="S2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>2</v>
       </c>
@@ -862,28 +943,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I3" s="3">
-        <v>0.001388888888888889</v>
+        <v>0.01527777777777778</v>
       </c>
       <c r="J3" s="3">
-        <v>0.9861111111111112</v>
+        <v>0.9993055555555556</v>
       </c>
       <c r="K3" s="4">
         <v>45864</v>
@@ -892,25 +973,28 @@
         <v>0.5</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="N3">
-        <v>800</v>
+        <v>860</v>
       </c>
       <c r="O3">
-        <v>800</v>
+        <v>860</v>
       </c>
       <c r="P3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R3" s="5">
-        <v>45936.58208333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>71</v>
+      </c>
+      <c r="S3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>10</v>
       </c>
@@ -918,19 +1002,19 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I4" s="3">
         <v>0.375</v>
@@ -951,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>13</v>
       </c>
@@ -965,22 +1049,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I5" s="3">
         <v>0.4166666666666667</v>
@@ -995,22 +1079,25 @@
         <v>0.5</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N5">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="O5">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="P5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>71</v>
+      </c>
+      <c r="S5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>14</v>
       </c>
@@ -1018,22 +1105,22 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I6" s="3">
         <v>0.375</v>
@@ -1048,7 +1135,7 @@
         <v>0.5</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -1057,16 +1144,16 @@
         <v>5</v>
       </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q6" t="s">
-        <v>65</v>
-      </c>
-      <c r="R6" s="5">
-        <v>45936.60693287037</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>71</v>
+      </c>
+      <c r="S6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1074,22 +1161,22 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I7" s="3">
         <v>0.375</v>
@@ -1104,7 +1191,7 @@
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -1113,16 +1200,16 @@
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q7" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" s="5">
-        <v>45936.60693287037</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>71</v>
+      </c>
+      <c r="S7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>18</v>
       </c>
@@ -1130,22 +1217,22 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I8" s="3">
         <v>0.4166666666666667</v>
@@ -1160,7 +1247,7 @@
         <v>0.5</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="N8">
         <v>5</v>
@@ -1169,16 +1256,16 @@
         <v>5</v>
       </c>
       <c r="P8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R8" s="5">
-        <v>45936.60693287037</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>71</v>
+      </c>
+      <c r="S8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1186,22 +1273,22 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I9" s="3">
         <v>0.375</v>
@@ -1216,7 +1303,7 @@
         <v>0.5</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>5</v>
@@ -1225,16 +1312,16 @@
         <v>5</v>
       </c>
       <c r="P9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q9" t="s">
-        <v>65</v>
-      </c>
-      <c r="R9" s="5">
-        <v>45936.60693287037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>71</v>
+      </c>
+      <c r="S9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>22</v>
       </c>
@@ -1242,28 +1329,28 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I10" s="3">
-        <v>0.375</v>
+        <v>0.0006944444444444445</v>
       </c>
       <c r="J10" s="3">
-        <v>0.7083333333333334</v>
+        <v>0.9909722222222223</v>
       </c>
       <c r="K10" s="4">
         <v>45930</v>
@@ -1272,7 +1359,7 @@
         <v>0.5</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>5</v>
@@ -1281,16 +1368,19 @@
         <v>5</v>
       </c>
       <c r="P10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="R10" s="5">
-        <v>45936.60693287037</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>45939.19875</v>
+      </c>
+      <c r="S10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>25</v>
       </c>
@@ -1298,22 +1388,22 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I11" s="3">
         <v>0.375</v>
@@ -1328,19 +1418,134 @@
         <v>0.5</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N11">
-        <v>5000</v>
+        <v>4999</v>
       </c>
       <c r="O11">
-        <v>5000</v>
+        <v>4999</v>
       </c>
       <c r="P11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q11" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+      <c r="S11" t="s">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="K12" s="4">
+        <v>45937</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>71</v>
+      </c>
+      <c r="S12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="K13" s="4">
+        <v>45937</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>71</v>
+      </c>
+      <c r="S13" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +1555,9 @@
     <hyperlink ref="G5" r:id="rId3"/>
     <hyperlink ref="G6" r:id="rId4"/>
     <hyperlink ref="G9" r:id="rId5"/>
-    <hyperlink ref="G11" r:id="rId6"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="G11" r:id="rId7"/>
+    <hyperlink ref="G12" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1358,7 +1565,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1366,22 +1573,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1389,13 +1596,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E2" s="4">
         <v>46229</v>
@@ -1406,19 +1613,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4">
         <v>46229</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1426,13 +1633,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E4" s="4">
         <v>46229</v>
@@ -1443,13 +1650,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E5" s="4">
         <v>46229</v>
@@ -1460,13 +1667,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E6" s="4">
         <v>46229</v>
@@ -1477,13 +1684,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E7" s="4">
         <v>46240</v>
@@ -1494,13 +1701,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E8" s="4">
         <v>46240</v>
@@ -1511,13 +1718,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E9" s="4">
         <v>46240</v>
@@ -1528,13 +1735,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E10" s="4">
         <v>46247</v>
@@ -1545,13 +1752,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E11" s="4">
         <v>46291</v>
@@ -1562,13 +1769,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E12" s="4">
         <v>46295</v>
@@ -1579,13 +1786,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E13" s="4">
         <v>46295</v>
@@ -1596,16 +1803,50 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E14" s="4">
         <v>46298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="4">
+        <v>46302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="4">
+        <v>46304</v>
       </c>
     </row>
   </sheetData>
@@ -1615,13 +1856,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -1673,8 +1914,14 @@
       <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1682,19 +1929,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="H2" s="3">
         <v>0.001388888888888889</v>
@@ -1709,22 +1956,28 @@
         <v>0.575775462962963</v>
       </c>
       <c r="L2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="M2">
         <v>80</v>
       </c>
       <c r="N2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>45939.12519675926</v>
+      </c>
+      <c r="R2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1732,16 +1985,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H3" s="3">
         <v>0.001388888888888889</v>
@@ -1762,13 +2015,16 @@
         <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>71</v>
+      </c>
+      <c r="R3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>9</v>
       </c>
@@ -1776,16 +2032,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H4" s="3">
         <v>0.375</v>
@@ -1800,7 +2056,7 @@
         <v>0.5</v>
       </c>
       <c r="L4" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="M4">
         <v>5</v>
@@ -1809,13 +2065,16 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>71</v>
+      </c>
+      <c r="R4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>10</v>
       </c>
@@ -1823,16 +2082,16 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H5" s="3">
         <v>0.375</v>
@@ -1853,10 +2112,13 @@
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+      <c r="R5" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1869,13 +2131,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1892,7 +2154,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1930,8 +2192,11 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1939,25 +2204,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="J2" s="3">
         <v>0.375</v>
@@ -1978,10 +2243,10 @@
         <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/database_export.xlsx
+++ b/backend/database_export.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="144">
   <si>
     <t>id</t>
   </si>
@@ -79,6 +79,9 @@
     <t>custom_schedule_data</t>
   </si>
   <si>
+    <t>post_daily_range</t>
+  </si>
+  <si>
     <t>sizzdleee_08</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
     <t>nishannnnnt__</t>
   </si>
   <si>
+    <t>abcd</t>
+  </si>
+  <si>
     <t>s11111111</t>
   </si>
   <si>
@@ -160,6 +166,9 @@
     <t>nishantgole@tsdcmumbai.in</t>
   </si>
   <si>
+    <t>yogeshlilakedev02@gmail.com</t>
+  </si>
+  <si>
     <t>{"uuids": {"phone_id": "00c46ff6-11e5-4c9d-8b9d-96e1cb7f51d9", "uuid": "db3bcff6-9857-450b-bc22-df7f88f339e7", "client_session_id": "ae905b60-88a1-4769-ac67-58c168154df2", "advertising_id": "a49361e0-2504-40a8-99d5-9b8b2160210f", "android_device_id": "android-9f5474fc3d527c34", "request_id": "b8001f50-a76a-42ac-8f96-a0a5dae7ed98", "tray_session_id": "c3fede98-33c7-43de-9c28-1768bc0f00de"}, "mid": "aNXsqgABAAGqkQjRDl_zDcOmAGaI", "ig_u_rur": null, "ig_www_claim": null, "authorization_data": {"ds_user_id": "75312165311", "sessionid": "75312165311%3AGefAkNUtqiBLym%3A2%3AAYjhTwmTg-tPJIqEadlPAHxcV_BERHiB8ffb1oKP_A"}, "cookies": {}, "last_login": 1758850235.7332764, "device_settings": {"app_version": "269.0.0.18.75", "android_version": 26, "android_release": "8.0.0", "dpi": "480dpi", "resolution": "1080x1920", "manufacturer": "OnePlus", "device": "devitron", "model": "6T Dev", "cpu": "qcom", "version_code": "314665256"}, "user_agent": "Instagram 269.0.0.18.75 Android (26/8.0.0; 480dpi; 1080x1920; OnePlus; 6T Dev; devitron; qcom; en_US; 314665256)", "country": "US", "country_code": 1, "locale": "en_US", "timezone_offset": -14400}</t>
   </si>
   <si>
@@ -202,7 +211,7 @@
     <t>{"token": "ya29.a0AQQ_BDSpkv_BbHVFhmwYzHgCqC2fGe0m5dFexgruDh-_6VtmaDt5dd9H7FDZzBsxCdpOFlH_0oznue90UwR8lRlyQjVkcDtKhUJVCMFaATspNxTPzDC3G2Khrke5jR1asyrkPjct8tCDXXYad1gs5FgDyp0sgssG6Fh5CB9e_e8T2w4-QnBBx5OIFrz5ATl9MjhrSpEj6QaCgYKAQ8SARISFQHGX2MixWO2G3GSLjSYJqCFr2Kb2g0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-08T21:22:42.654493Z"}</t>
   </si>
   <si>
-    <t>{"token": "ya29.a0AQQ_BDT9BCZo_Ow2tH9fQ1TSYFC3v-Gnuo_Aa3jLJnFPcG1GK1WM5m1CWDLXL0QDkHwaLTdQM_fXs1TkIrEolYuzYoh2644pPa8ZznuT7lRGYFjIk03EAdyxgYoJ2ABqH_v7liwV6U2xwdbZrDRfnwe8RDV9BDRYTW2pJ-U7Se3pzvyToMvTr9XVJduMK8Z7lrOqtECKSAaCgYKAS4SARISFQHGX2MiaWe65vmreNe6ODQnAAdC5Q0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-08T21:24:41.006616Z"}</t>
+    <t>{"token": "ya29.a0AQQ_BDSwJibVcOE0RU74yySJxhx-ydtcPzX26kEwbalDEEIlAS7H00BzfJGpvVxN_5xKgC4E64Uspa8g9OdnfcGQ6vJlrgUo3fPscdaQt0OYhPfEVmIqOUqsVSKGhNUyKCKKKwFlLb72PXGqcccbD29uZ7qyTV13PpA2y_Pnatu4LAWtYkgbNTNv8jmoD_Tyv5n96P7w2QaCgYKATkSARISFQHGX2MiHVDkLPbBBCO3HihSE8ghww0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-14T09:57:58.623979Z"}</t>
   </si>
   <si>
     <t>{"token": "ya29.a0AQQ_BDQnKzwcA1eGIYVpksjZ5fTndbQkazLKLB6EdSASL2q42oK8lT4rMm1nBvc46LZDj0-810Ao4bUAAhVpUrHSLrdAzUckxZdpF4pkNz_hC9h9BugdwwimZEN6i9b7ncRfAezLVODFEnJPPgbZuLx01WuF7M9Pv7Er9d8QiPdHPpObK5TP5PHlliYFaGBfHltosKfR7QaCgYKAQsSARISFQHGX2MiYMapb5X2F-vvdesIj3A6iQ0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-07T20:01:18.882414Z"}</t>
@@ -223,7 +232,7 @@
     <t>{"token": "ya29.a0AQQ_BDS6yvdBQ_70zYoEEsRSp360NfZ56HO3qMzMKwADn-cT0PsnUE_-Vxp_cU0IChuRKt1EB4rpn8UL7ZtlxH2tvYMevRcLI8QKLpkaMprmsebEKl6EX1CdqZr8rjrbvci3o4JL8Xf321-1ikrQo2VfFtgBVY7CqJtiEuc8pu5WsVAR-VYIXTQRr-cEWxuyExDhUw-HcwaCgYKAawSARISFQHGX2MiK90MyZTNIz7M5j2j5P60RA0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-07T19:48:53.931965Z"}</t>
   </si>
   <si>
-    <t>{"token": "ya29.a0AQQ_BDSAvkeLFH4xsDeJEXbJL0budg2EEAhnGSmp3O8ujBti4oQpAgpmeM0aw5-dvApQvJ3JitXzUQrTlmwrwVOPxExOk5a4CghEwQZF7rtKxRW3oy_WWlq8xnVGPkrFrxYw1784RbNSVh_r13V6qK6t2wIfk_diUsslqAAYcQu25LYTk4GKngsnJXpkHOfAILmGl7QR2AaCgYKAecSARISFQHGX2MiWzKzl81xOw0InLwLYO45Tw0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-07T19:48:57.275162Z"}</t>
+    <t>{"token": "ya29.a0AQQ_BDSmkl7rpTQXbgozzmg0kG1Qtdj9ZiQlcgnhy__xswbQgOjboyPXkPuB60vwvGWUTp2LmnOMwpiF34x5FTbhbWMLKO0fRLcUNxmv9Zsu0IsmR6Nc9y3l2TQ2TsXDTEyy34GOl1Cj_rmgl2kwrC8XU1UQcZBHD2syk6Dz-cWZYl9xFCS2as50e4259g3giPDoqJ83vAaCgYKASASARISFQHGX2MiUJqHxqd9uBU5Z2SYbiczvA0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-14T09:57:59.786523Z"}</t>
   </si>
   <si>
     <t>{"token": "ya29.a0AQQ_BDQz3ipZHvoHP8w1y0JsAmIN5UJJTd89mM0ZT5lPhvXqeZUX54UV6MvJEzH5kRtpdjga__FM7jQ_U96AowWC8iIlVC7eS58WXn7VB_z1p2fd1E9u2p7HbUHkBJEtfmEBwJRrlxLmPUdZEs3P2xYvnql_LJRKy6y2buopHzctv-M5wV45NlfTuE3pJNcbDXM84c39wgaCgYKAQgSARISFQHGX2MiAX-kRO5CD80IKRoGOlREMA0209", "refresh_token": "1//0gRda6kBhqVpZCgYIARAAGBASNwF-L9Ir2o8oNL6m67k5xwTKr1w8XwUNLwsPnTovkgl-IYpk1ITcLPvutphvGZs1H9VFYlqq1eE", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-07T20:01:21.811652Z"}</t>
@@ -235,15 +244,18 @@
     <t>range</t>
   </si>
   <si>
-    <t>6273b2f731c93d4c6b2a6cb85f7ead04</t>
-  </si>
-  <si>
-    <t>f9e09b8e25ef258361d7f3710c54c99f</t>
+    <t>26e934ac92ff42d63938d5b9d02ec06b</t>
+  </si>
+  <si>
+    <t>a66fb7980541ef684d8fc34a3ac3255e</t>
   </si>
   <si>
     <t>883f65d5eb5f704e1d373bf402b261f5</t>
   </si>
   <si>
+    <t>a348cae98f8f5e3a71ff80ad21e005bb</t>
+  </si>
+  <si>
     <t>a7a7468f02013a7ca871c30bb4b2eae9</t>
   </si>
   <si>
@@ -253,16 +265,19 @@
     <t>019f5fb098f974627ce68a355bf8765a</t>
   </si>
   <si>
-    <t>a465973fc392219d00bf85693dd21e49</t>
+    <t>c87a2fd0ffe8d04c167d67669868626b</t>
+  </si>
+  <si>
+    <t>889288b9f4d2b72909e6350fb1b3ae4d</t>
   </si>
   <si>
     <t>[{"media_name": "IMG_6523.jpg", "scheduled_datetime": null, "file_id": "1dMd5r_wNq7S4DprBRUe89mCOHGBWAmZE", "status": "pending", "upload_time": "2025-10-11 12:46:04", "schedule_type": "range"}, {"media_name": "bcb4a16154c940d6be3339ee0360f2ae.mov", "scheduled_datetime": null, "file_id": "1XZb2eW8eCmHjAmt9bE5kCD_Mpe27dh0z", "status": "pending", "upload_time": "2025-10-11 12:47:55", "schedule_type": "range"}, {"media_name": "IMG_0498.mov", "scheduled_datetime": null, "file_id": "1gEaipO2r0OYZFGFxz5K26rbKjePyaOWD", "status": "pending", "upload_time": "2025-10-11 12:49:35", "schedule_type": "range"}]</t>
   </si>
   <si>
-    <t>[{"file_id": "1PHwMolraH24obyJcfJx8NnBkvDERYN7Q", "media_name": "1000414065.jpg", "schedule_type": "datetime", "scheduled_datetime": "2025-10-11 03:10:00", "status": "pending", "upload_time": "2025-10-11 00:48:51"}, {"file_id": "1jn_fV3MeRDxyyZtufywE2X9Zgm65qTHn", "media_name": "1000414068.jpg", "schedule_type": "range", "scheduled_datetime": null, "status": "pending", "upload_time": "2025-10-11 00:49:36"}, {"file_id": "1sSk5rn4YvYs_Ou0nujsaomC3QdxTn9pP", "media_name": "1000412779.mp4", "schedule_type": "range", "scheduled_datetime": null, "status": "pending", "upload_time": "2025-10-11 00:49:43"}, {"file_id": "1CzGfFBDnGW7w3HPdH6YQonCsZT1tgxrL", "media_name": "1000412000.mp4", "schedule_type": "datetime", "scheduled_datetime": "2025-10-21 03:15:00", "status": "pending", "upload_time": "2025-10-11 00:50:07"}, {"file_id": "1QDF-5v9Mn3zDRaeEXU8X2WhzRjQVxZlv", "media_name": "1000414447.jpg", "schedule_type": "datetime", "scheduled_datetime": "2025-10-11 07:38:00", "status": "pending", "upload_time": "2025-10-11 13:04:32"}, {"file_id": "15DW-xMwh6qgj3SxLtpNT1in-RXseiHVn", "media_name": "1000411385.mp4", "schedule_type": "range", "scheduled_datetime": null, "status": "pending", "upload_time": "2025-10-11 13:01:31"}]</t>
-  </si>
-  <si>
-    <t>[{"media_name": "1000412708.jpg", "scheduled_datetime": null, "file_id": "1iJmmB1_BJmTChC4OPcsNqYYDEwNEreV8", "status": "pending", "upload_time": "2025-10-11 19:56:42", "schedule_type": "range"}]</t>
+    <t>[{"file_id": "1PHwMolraH24obyJcfJx8NnBkvDERYN7Q", "media_name": "1000414065.jpg", "schedule_type": "datetime", "scheduled_datetime": "2025-10-11 03:10:00", "status": "upload_missed", "upload_time": "2025-10-11 00:48:51"}, {"file_id": "1jn_fV3MeRDxyyZtufywE2X9Zgm65qTHn", "media_name": "1000414068.jpg", "schedule_type": "range", "scheduled_datetime": null, "status": "pending", "upload_time": "2025-10-11 00:49:36"}, {"file_id": "1sSk5rn4YvYs_Ou0nujsaomC3QdxTn9pP", "media_name": "1000412779.mp4", "schedule_type": "range", "scheduled_datetime": null, "status": "pending", "upload_time": "2025-10-11 00:49:43"}, {"file_id": "1CzGfFBDnGW7w3HPdH6YQonCsZT1tgxrL", "media_name": "1000412000.mp4", "schedule_type": "datetime", "scheduled_datetime": "2025-10-21 03:15:00", "status": "pending", "upload_time": "2025-10-11 00:50:07"}, {"file_id": "1QDF-5v9Mn3zDRaeEXU8X2WhzRjQVxZlv", "media_name": "1000414447.jpg", "schedule_type": "datetime", "scheduled_datetime": "2025-10-11 07:38:00", "status": "upload_missed", "upload_time": "2025-10-11 13:04:32"}, {"file_id": "15DW-xMwh6qgj3SxLtpNT1in-RXseiHVn", "media_name": "1000411385.mp4", "schedule_type": "range", "scheduled_datetime": null, "status": "pending", "upload_time": "2025-10-11 13:01:31"}, {"caption": "Yoooooo", "file_id": "1fZ8oVOEzpT2Igi14JKInt0dwVML4S4Db", "media_name": "1000414781.jpg", "schedule_type": "range", "scheduled_datetime": null, "status": "pending", "upload_time": "2025-10-12 01:50:34"}, {"caption": "Janmo Janmo tak piya ka saath mil jaaye", "file_id": "1eebd8YVDbfG6H-pESYEcZ-NGsMHmddTz", "media_name": "1000414907.jpg", "schedule_type": "range", "scheduled_datetime": null, "status": "pending", "upload_time": "2025-10-12 02:33:50"}, {"caption": "Hhhhh", "file_id": "11k0N4OmJoQtgrdO8wSXajGs4mzNVfvKU", "media_name": "1000414921.jpg", "schedule_type": "range", "scheduled_datetime": null, "status": "pending", "upload_time": "2025-10-12 02:54:03"}, {"caption": "Fhdjsfnafnafb\n", "file_id": "1URaY375oLbPLm7icQxvm8-bkALiJo0ph", "media_name": "IMG_6549.jpg", "schedule_type": "range", "scheduled_datetime": null, "status": "pending", "upload_time": "2025-10-12 16:29:46"}]</t>
+  </si>
+  <si>
+    <t>[{"media_name": "1000414907.jpg", "scheduled_datetime": null, "file_id": "1gE9K-LVUhCnr0kW6-R6Ksl4n-rOKUCVS", "status": "pending", "upload_time": "2025-10-12 03:10:49", "schedule_type": "range", "caption": ""}, {"media_name": "1000414421.mp4", "scheduled_datetime": "2025-10-14 15:55:00", "file_id": "1F8hVwV6vMxL7uqdPzgsBMz_9QGJfp_s3", "status": "pending", "upload_time": "2025-10-14 11:50:00", "schedule_type": "datetime", "caption": "Yuuhhhhh"}, {"media_name": "1000414921.jpg", "scheduled_datetime": null, "file_id": "125pTraghlAWcUi7g080eABcsWJlYR3NF", "status": "pending", "upload_time": "2025-10-12 03:11:00", "schedule_type": "range", "caption": ""}, {"media_name": "1000414908.jpg", "scheduled_datetime": null, "file_id": "1RhPgxgfDWU4oVK0pLM3DG5_K6MVlfadf", "status": "pending", "upload_time": "2025-10-12 03:11:20", "schedule_type": "range", "caption": ""}, {"media_name": "1000414910.jpg", "scheduled_datetime": null, "file_id": "1s1BVR2a8-ntDcOK_PDaRV470B9_hMxh-", "status": "pending", "upload_time": "2025-10-12 03:11:20", "schedule_type": "range", "caption": ""}, {"media_name": "1000414418.mp4", "scheduled_datetime": null, "file_id": "11PIRE20EVqSuL-R9sxMFrXMtTeEjHjjt", "status": "pending", "upload_time": "2025-10-12 03:13:54", "schedule_type": "range", "caption": ""}, {"media_name": "1000414421.mp4", "scheduled_datetime": null, "file_id": "1JZ08jpCvohIhroQZJRfcNcJYPaHVToeZ", "status": "pending", "upload_time": "2025-10-12 03:11:34", "schedule_type": "range", "caption": ""}]</t>
   </si>
   <si>
     <t>Id</t>
@@ -322,6 +337,9 @@
     <t>Shree</t>
   </si>
   <si>
+    <t xml:space="preserve">Yogesh Dinesh Lilake </t>
+  </si>
+  <si>
     <t>Bhagyashri@4</t>
   </si>
   <si>
@@ -373,6 +391,9 @@
     <t>123456789</t>
   </si>
   <si>
+    <t>9136720035</t>
+  </si>
+  <si>
     <t>channel_name</t>
   </si>
   <si>
@@ -403,10 +424,10 @@
     <t>https://drive.google.com/drive/folders/1xs6WsSsThyUCa2zuTqV14AxsAXGXM3Xb</t>
   </si>
   <si>
-    <t>{"token": "ya29.a0AQQ_BDQHy_UtekZIjpf9wA891RTJ0SHOwXFGzX1OorhI4DzVGN7M5vRf0K78I2_Vw2VbvXVFEf2GKQryOzkvmeYLPeJemueLJGIbzWRBcTsrP-9Srefhko1ukSAeC_6QLuH4UZVrgTeSUHXx6rIWIA6BQoQ5iBHAf_YFPBSEsVbl-WIzFEwM8mLMyWxQmwHfS0e-kTZ9_gaCgYKAVgSARYSFQHGX2MijvZFdfbrsUNKf4LpHBsGYA0209", "refresh_token": "1//0gD5LdHiq77-OCgYIARAAGBASNwF-L9Ir531ny5EdmZ0Jg77Jn8tzqu5vrPspQPMfoGeNgHW4hJjX9OCWVGpk8c_O9GHRDCj-qWI", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-08T22:16:41.601224Z"}</t>
-  </si>
-  <si>
-    <t>{"token": "ya29.a0AQQ_BDSwid5Ay7aA8JQ51twtxHmIxzImW-XLBTvrGUczVbv4rZhawi1hQca-WSfFzcqT6hDcgcn0Pf_DjJhXnkU3LNQCtqX5cGnT0BoadqbOj0AOFrsZGPkGpLO-V1P9ndpDpUM861v3nki8PZED4nJj5Ggfy_hbmadLU7VMfnmX_ItfX_LhYlsVXGfnVWimWzpVNt41LgaCgYKAT4SARYSFQHGX2Mi7zYvbBkVoqNV20jkFT8KPQ0209", "refresh_token": "1//0gD5LdHiq77-OCgYIARAAGBASNwF-L9Ir531ny5EdmZ0Jg77Jn8tzqu5vrPspQPMfoGeNgHW4hJjX9OCWVGpk8c_O9GHRDCj-qWI", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-07T19:49:24.300473Z"}</t>
+    <t>{"token": "ya29.a0AQQ_BDRuvCkuCzOK-2RkxlDhzUtKNGtyAnFx65AD4UEG2H8GkuGSKzWa3L1kubI5WYMmDrr-buk3S04JXamA1rEjtO9U3UhIO6MStvdVDGtBhN1cseoUpnrc1tQagEhTIjubEMJoOJF04U6_S8u6d5f0jg5e8fJyyQFy4Njh7Ur-bSmUo6aAU_sfdYZ7T2P0gIItLzNZHAaCgYKAegSARYSFQHGX2Mix6OB9VWJrK8VK2YCxpU6Og0209", "refresh_token": "1//0gD5LdHiq77-OCgYIARAAGBASNwF-L9Ir531ny5EdmZ0Jg77Jn8tzqu5vrPspQPMfoGeNgHW4hJjX9OCWVGpk8c_O9GHRDCj-qWI", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-14T09:58:01.741814Z"}</t>
+  </si>
+  <si>
+    <t>{"token": "ya29.a0AQQ_BDRGL8hvHQ8Vft_axN_2lVtvcBZ20k3NMVRVZn68udAdLLjMZPBCjb85c69BeEfM_1OZGzIo2EXAnOQ3rFDs01xi29hZh58uKB13UpJn7H0E6byYLPvKGZLzaWN53FmJ-UlPPsYMeHGdJImHYlK-MLULShrv6RLFgwI7dwYS4xFQnhks1TdiFhaaDVEqcEb59axzqgaCgYKAW0SARYSFQHGX2MiUvVbTp6C8R0k_CME7BBG6w0209", "refresh_token": "1//0gD5LdHiq77-OCgYIARAAGBASNwF-L9Ir531ny5EdmZ0Jg77Jn8tzqu5vrPspQPMfoGeNgHW4hJjX9OCWVGpk8c_O9GHRDCj-qWI", "token_uri": "https://oauth2.googleapis.com/token", "client_id": "494268272581-136v3gaqi1bga4120m5iilf62to3uckg.apps.googleusercontent.com", "client_secret": "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", "scopes": ["https://www.googleapis.com/auth/drive"], "universe_domain": "googleapis.com", "account": "", "expiry": "2025-10-14T09:58:02.960116Z"}</t>
   </si>
   <si>
     <t>9df4f2a8c258de3406150df5497f77b6</t>
@@ -805,13 +826,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,8 +893,11 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>1</v>
       </c>
@@ -881,22 +905,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I2" s="3">
         <v>0.006944444444444444</v>
@@ -911,31 +935,34 @@
         <v>0.0625</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R2" s="5">
-        <v>45939.42152777778</v>
+        <v>45944.70731481481</v>
       </c>
       <c r="S2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>84</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>2</v>
       </c>
@@ -943,22 +970,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I3" s="3">
         <v>0.01527777777777778</v>
@@ -973,28 +1000,34 @@
         <v>0.5</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N3">
-        <v>860</v>
+        <v>10</v>
       </c>
       <c r="O3">
-        <v>860</v>
+        <v>8</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q3" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="R3" s="5">
+        <v>45944.69381944444</v>
       </c>
       <c r="S3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>85</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1002,19 +1035,19 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I4" s="3">
         <v>0.375</v>
@@ -1029,19 +1062,22 @@
         <v>0.5</v>
       </c>
       <c r="N4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>74</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>13</v>
       </c>
@@ -1049,22 +1085,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I5" s="3">
         <v>0.4166666666666667</v>
@@ -1079,25 +1115,28 @@
         <v>0.5</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>77</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>14</v>
       </c>
@@ -1105,22 +1144,22 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I6" s="3">
         <v>0.375</v>
@@ -1135,25 +1174,34 @@
         <v>0.5</v>
       </c>
       <c r="M6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q6" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="R6" s="5">
+        <v>45944.65846064815</v>
       </c>
       <c r="S6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>78</v>
+      </c>
+      <c r="T6" t="s">
+        <v>86</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1161,22 +1209,22 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I7" s="3">
         <v>0.375</v>
@@ -1191,25 +1239,28 @@
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>79</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>18</v>
       </c>
@@ -1217,22 +1268,22 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I8" s="3">
         <v>0.4166666666666667</v>
@@ -1247,25 +1298,28 @@
         <v>0.5</v>
       </c>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>80</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1273,22 +1327,22 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I9" s="3">
         <v>0.375</v>
@@ -1303,25 +1357,28 @@
         <v>0.5</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>79</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>22</v>
       </c>
@@ -1329,22 +1386,22 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I10" s="3">
         <v>0.0006944444444444445</v>
@@ -1359,28 +1416,28 @@
         <v>0.5</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q10" t="s">
-        <v>71</v>
-      </c>
-      <c r="R10" s="5">
-        <v>45939.19875</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>81</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>25</v>
       </c>
@@ -1388,28 +1445,28 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I11" s="3">
         <v>0.375</v>
       </c>
       <c r="J11" s="3">
-        <v>0.2916666666666667</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="K11" s="4">
         <v>45933</v>
@@ -1418,28 +1475,34 @@
         <v>0.5</v>
       </c>
       <c r="M11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N11">
-        <v>4999</v>
+        <v>7</v>
       </c>
       <c r="O11">
-        <v>4999</v>
+        <v>7</v>
       </c>
       <c r="P11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q11" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="R11" s="5">
+        <v>45944.66319444445</v>
       </c>
       <c r="S11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>86</v>
+      </c>
+      <c r="U11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>29</v>
       </c>
@@ -1447,22 +1510,22 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I12" s="3">
         <v>0.375</v>
@@ -1477,25 +1540,28 @@
         <v>0.5</v>
       </c>
       <c r="M12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+        <v>79</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>30</v>
       </c>
@@ -1503,19 +1569,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I13" s="3">
         <v>0.375</v>
@@ -1530,22 +1596,84 @@
         <v>0.5</v>
       </c>
       <c r="M13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="K14" s="4">
+        <v>45943</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>74</v>
+      </c>
+      <c r="S14" t="s">
+        <v>83</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1558,6 +1686,7 @@
     <hyperlink ref="G10" r:id="rId6"/>
     <hyperlink ref="G11" r:id="rId7"/>
     <hyperlink ref="G12" r:id="rId8"/>
+    <hyperlink ref="G14" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1565,7 +1694,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1573,22 +1702,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1596,13 +1725,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4">
         <v>46229</v>
@@ -1613,19 +1742,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="4">
         <v>46229</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1633,13 +1762,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E4" s="4">
         <v>46229</v>
@@ -1650,13 +1779,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E5" s="4">
         <v>46229</v>
@@ -1667,13 +1796,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E6" s="4">
         <v>46229</v>
@@ -1684,13 +1813,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E7" s="4">
         <v>46240</v>
@@ -1701,13 +1830,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E8" s="4">
         <v>46240</v>
@@ -1718,13 +1847,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E9" s="4">
         <v>46240</v>
@@ -1735,13 +1864,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E10" s="4">
         <v>46247</v>
@@ -1752,13 +1881,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4">
         <v>46291</v>
@@ -1769,13 +1898,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4">
         <v>46295</v>
@@ -1786,13 +1915,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E13" s="4">
         <v>46295</v>
@@ -1803,13 +1932,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E14" s="4">
         <v>46298</v>
@@ -1820,13 +1949,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15" s="4">
         <v>46302</v>
@@ -1837,16 +1966,36 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E16" s="4">
         <v>46304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="4">
+        <v>46308</v>
+      </c>
+      <c r="F17" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1856,13 +2005,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1870,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -1920,8 +2069,11 @@
       <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1929,19 +2081,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H2" s="3">
         <v>0.001388888888888889</v>
@@ -1956,28 +2108,28 @@
         <v>0.575775462962963</v>
       </c>
       <c r="L2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>45939.12519675926</v>
+        <v>74</v>
       </c>
       <c r="R2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>137</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1985,16 +2137,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H3" s="3">
         <v>0.001388888888888889</v>
@@ -2009,22 +2161,25 @@
         <v>0.575775462962963</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>138</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>9</v>
       </c>
@@ -2032,16 +2187,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H4" s="3">
         <v>0.375</v>
@@ -2056,25 +2211,28 @@
         <v>0.5</v>
       </c>
       <c r="L4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>79</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>10</v>
       </c>
@@ -2082,16 +2240,16 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H5" s="3">
         <v>0.375</v>
@@ -2106,19 +2264,22 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2131,13 +2292,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2154,7 +2315,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2195,8 +2356,11 @@
       <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2204,25 +2368,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="J2" s="3">
         <v>0.375</v>
@@ -2243,10 +2407,13 @@
         <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q2" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
